--- a/data/temp_upload.xlsx
+++ b/data/temp_upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\results giver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1D896A-74C4-402A-9AB5-C2663D54C83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB2719C-F5E4-4E82-9885-50FCAAFB615B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="152">
   <si>
     <t>ID</t>
   </si>
@@ -217,280 +217,280 @@
     <t>3 Top Ten Questions Wrong</t>
   </si>
   <si>
+    <t>Section1-Q4</t>
+  </si>
+  <si>
+    <t>Section1-Q19</t>
+  </si>
+  <si>
     <t>Section1-Q1</t>
   </si>
   <si>
+    <t>Section2-Q10</t>
+  </si>
+  <si>
+    <t>Section2-Q21</t>
+  </si>
+  <si>
+    <t>Section2-Q22</t>
+  </si>
+  <si>
+    <t>Section3-Q1</t>
+  </si>
+  <si>
+    <t>Section3-Q14</t>
+  </si>
+  <si>
+    <t>Section3-Q13</t>
+  </si>
+  <si>
+    <t>Section1-Q15</t>
+  </si>
+  <si>
+    <t>Section1-Q20</t>
+  </si>
+  <si>
+    <t>Section1-Q22</t>
+  </si>
+  <si>
+    <t>Section2-Q4</t>
+  </si>
+  <si>
+    <t>Section2-Q18</t>
+  </si>
+  <si>
+    <t>Section2-Q11</t>
+  </si>
+  <si>
+    <t>Section3-Q3</t>
+  </si>
+  <si>
+    <t>Section3-Q8</t>
+  </si>
+  <si>
+    <t>Section3-Q2</t>
+  </si>
+  <si>
+    <t>Section1-Q21</t>
+  </si>
+  <si>
+    <t>Section1-Q5</t>
+  </si>
+  <si>
+    <t>Section1-Q11</t>
+  </si>
+  <si>
+    <t>Section2-Q15</t>
+  </si>
+  <si>
+    <t>Section2-Q8</t>
+  </si>
+  <si>
+    <t>Section2-Q14</t>
+  </si>
+  <si>
+    <t>Section3-Q4</t>
+  </si>
+  <si>
+    <t>Section3-Q6</t>
+  </si>
+  <si>
+    <t>Section1-Q27</t>
+  </si>
+  <si>
+    <t>Section1-Q12</t>
+  </si>
+  <si>
+    <t>Section1-Q13</t>
+  </si>
+  <si>
+    <t>Section2-Q20</t>
+  </si>
+  <si>
+    <t>Section2-Q16</t>
+  </si>
+  <si>
+    <t>Section2-Q12</t>
+  </si>
+  <si>
+    <t>Section3-Q5</t>
+  </si>
+  <si>
+    <t>Section3-Q9</t>
+  </si>
+  <si>
+    <t>Section3-Q10</t>
+  </si>
+  <si>
+    <t>Section1-Q16</t>
+  </si>
+  <si>
+    <t>Section1-Q18</t>
+  </si>
+  <si>
+    <t>Section1-Q17</t>
+  </si>
+  <si>
+    <t>Section2-Q6</t>
+  </si>
+  <si>
+    <t>Section2-Q24</t>
+  </si>
+  <si>
+    <t>Section2-Q1</t>
+  </si>
+  <si>
+    <t>Section3-Q15</t>
+  </si>
+  <si>
+    <t>Section3-Q11</t>
+  </si>
+  <si>
+    <t>Section1-Q28</t>
+  </si>
+  <si>
+    <t>Section1-Q26</t>
+  </si>
+  <si>
+    <t>Section1-Q2</t>
+  </si>
+  <si>
+    <t>Section2-Q9</t>
+  </si>
+  <si>
+    <t>Section2-Q3</t>
+  </si>
+  <si>
+    <t>Section3-Q7</t>
+  </si>
+  <si>
+    <t>Section3-Q12</t>
+  </si>
+  <si>
+    <t>Section1-Q30</t>
+  </si>
+  <si>
+    <t>Section1-Q3</t>
+  </si>
+  <si>
+    <t>Section1-Q23</t>
+  </si>
+  <si>
+    <t>Section1-Q14</t>
+  </si>
+  <si>
+    <t>Section1-Q8</t>
+  </si>
+  <si>
+    <t>Section1-Q29</t>
+  </si>
+  <si>
+    <t>Section2-Q19</t>
+  </si>
+  <si>
+    <t>Section2-Q17</t>
+  </si>
+  <si>
+    <t>Section2-Q5</t>
+  </si>
+  <si>
+    <t>Section1-Q6</t>
+  </si>
+  <si>
+    <t>Section2-Q2</t>
+  </si>
+  <si>
+    <t>Section2-Q23</t>
+  </si>
+  <si>
+    <t>Section2-Q7</t>
+  </si>
+  <si>
+    <t>Section1-Q7</t>
+  </si>
+  <si>
     <t>Section1-Q10</t>
   </si>
   <si>
-    <t>Section1-Q15</t>
-  </si>
-  <si>
-    <t>Section2-Q1</t>
-  </si>
-  <si>
-    <t>Section2-Q23</t>
-  </si>
-  <si>
-    <t>Section2-Q21</t>
-  </si>
-  <si>
-    <t>Section3-Q2</t>
-  </si>
-  <si>
-    <t>Section3-Q12</t>
-  </si>
-  <si>
-    <t>Section3-Q1</t>
-  </si>
-  <si>
-    <t>Section1-Q2</t>
-  </si>
-  <si>
-    <t>Section1-Q19</t>
-  </si>
-  <si>
-    <t>Section1-Q11</t>
-  </si>
-  <si>
-    <t>Section2-Q7</t>
-  </si>
-  <si>
-    <t>Section2-Q20</t>
-  </si>
-  <si>
-    <t>Section2-Q12</t>
-  </si>
-  <si>
-    <t>Section3-Q3</t>
-  </si>
-  <si>
-    <t>Section3-Q9</t>
-  </si>
-  <si>
-    <t>Section3-Q11</t>
-  </si>
-  <si>
-    <t>Section1-Q6</t>
-  </si>
-  <si>
-    <t>Section1-Q18</t>
-  </si>
-  <si>
-    <t>Section1-Q13</t>
-  </si>
-  <si>
-    <t>Section2-Q17</t>
-  </si>
-  <si>
-    <t>Section2-Q11</t>
-  </si>
-  <si>
     <t>Section2-Q13</t>
   </si>
   <si>
-    <t>Section3-Q4</t>
-  </si>
-  <si>
-    <t>Section3-Q14</t>
-  </si>
-  <si>
-    <t>Section1-Q3</t>
-  </si>
-  <si>
-    <t>Section1-Q26</t>
-  </si>
-  <si>
-    <t>Section1-Q4</t>
-  </si>
-  <si>
-    <t>Section2-Q3</t>
-  </si>
-  <si>
-    <t>Section2-Q15</t>
-  </si>
-  <si>
     <t>Section2-Q25</t>
   </si>
   <si>
-    <t>Section3-Q7</t>
-  </si>
-  <si>
-    <t>Section3-Q13</t>
-  </si>
-  <si>
-    <t>Section3-Q5</t>
-  </si>
-  <si>
-    <t>Section1-Q22</t>
-  </si>
-  <si>
-    <t>Section1-Q8</t>
-  </si>
-  <si>
-    <t>Section1-Q16</t>
-  </si>
-  <si>
-    <t>Section2-Q9</t>
-  </si>
-  <si>
-    <t>Section2-Q19</t>
-  </si>
-  <si>
-    <t>Section3-Q10</t>
-  </si>
-  <si>
-    <t>Section1-Q5</t>
-  </si>
-  <si>
-    <t>Section1-Q12</t>
-  </si>
-  <si>
-    <t>Section1-Q21</t>
-  </si>
-  <si>
-    <t>Section2-Q10</t>
-  </si>
-  <si>
-    <t>Section2-Q8</t>
-  </si>
-  <si>
-    <t>Section3-Q6</t>
-  </si>
-  <si>
-    <t>Section3-Q15</t>
-  </si>
-  <si>
-    <t>Section1-Q7</t>
-  </si>
-  <si>
-    <t>Section1-Q17</t>
-  </si>
-  <si>
-    <t>Section1-Q14</t>
-  </si>
-  <si>
-    <t>Section2-Q16</t>
-  </si>
-  <si>
-    <t>Section2-Q22</t>
-  </si>
-  <si>
-    <t>Section3-Q8</t>
-  </si>
-  <si>
-    <t>Section1-Q20</t>
-  </si>
-  <si>
-    <t>Section1-Q23</t>
-  </si>
-  <si>
-    <t>Section2-Q24</t>
-  </si>
-  <si>
-    <t>Section2-Q18</t>
-  </si>
-  <si>
-    <t>Section2-Q5</t>
+    <t>Roll</t>
+  </si>
+  <si>
+    <t>Section1-Q9</t>
+  </si>
+  <si>
+    <t>Section1-Q24</t>
   </si>
   <si>
     <t>Section1-Q25</t>
   </si>
   <si>
-    <t>Section2-Q4</t>
-  </si>
-  <si>
-    <t>Section1-Q24</t>
-  </si>
-  <si>
-    <t>Section1-Q27</t>
-  </si>
-  <si>
-    <t>Section2-Q6</t>
-  </si>
-  <si>
-    <t>Roll</t>
-  </si>
-  <si>
-    <t>Section1-Q9</t>
-  </si>
-  <si>
-    <t>Section1-Q28</t>
-  </si>
-  <si>
-    <t>Section1-Q29</t>
-  </si>
-  <si>
-    <t>Section1-Q30</t>
-  </si>
-  <si>
-    <t>Section2-Q2</t>
-  </si>
-  <si>
-    <t>Section2-Q14</t>
+    <t>754261</t>
+  </si>
+  <si>
+    <t>B (W)</t>
+  </si>
+  <si>
+    <t>E (W)</t>
+  </si>
+  <si>
+    <t>A (W)</t>
+  </si>
+  <si>
+    <t>E (C)</t>
+  </si>
+  <si>
+    <t>NAN</t>
+  </si>
+  <si>
+    <t>D (W)</t>
+  </si>
+  <si>
+    <t>B (C)</t>
+  </si>
+  <si>
+    <t>C (W)</t>
+  </si>
+  <si>
+    <t>C (C)</t>
+  </si>
+  <si>
+    <t>D (C)</t>
+  </si>
+  <si>
+    <t>A (C)</t>
   </si>
   <si>
     <t>346190</t>
   </si>
   <si>
-    <t>C (C)</t>
-  </si>
-  <si>
-    <t>D (C)</t>
-  </si>
-  <si>
-    <t>A (W)</t>
-  </si>
-  <si>
-    <t>E (C)</t>
-  </si>
-  <si>
-    <t>NAN</t>
-  </si>
-  <si>
-    <t>B (W)</t>
-  </si>
-  <si>
-    <t>B (C)</t>
-  </si>
-  <si>
-    <t>E (W)</t>
-  </si>
-  <si>
-    <t>750246</t>
-  </si>
-  <si>
-    <t>C (W)</t>
-  </si>
-  <si>
-    <t>D (W)</t>
+    <t>216338</t>
+  </si>
+  <si>
+    <t>255879</t>
   </si>
   <si>
     <t>694668</t>
   </si>
   <si>
-    <t>22879</t>
-  </si>
-  <si>
-    <t>A (C)</t>
-  </si>
-  <si>
-    <t>216338</t>
-  </si>
-  <si>
     <t>871945</t>
   </si>
   <si>
-    <t>546220</t>
+    <t>DE (W)</t>
+  </si>
+  <si>
+    <t>159244</t>
+  </si>
+  <si>
+    <t>166388</t>
   </si>
   <si>
     <t>532160</t>
-  </si>
-  <si>
-    <t>166388</t>
-  </si>
-  <si>
-    <t>159244</t>
   </si>
 </sst>
 </file>
@@ -568,14 +568,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF90EE90"/>
-        <bgColor rgb="FF90EE90"/>
+        <fgColor rgb="FFFFB6C1"/>
+        <bgColor rgb="FFFFB6C1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFB6C1"/>
-        <bgColor rgb="FFFFB6C1"/>
+        <fgColor rgb="FF90EE90"/>
+        <bgColor rgb="FF90EE90"/>
       </patternFill>
     </fill>
   </fills>
@@ -1101,7 +1101,7 @@
   <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1293,59 +1293,59 @@
         <v>28</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>9.25</v>
+        <v>4.75</v>
       </c>
       <c r="F4">
-        <v>30.833333333333336</v>
+        <v>15.833333333333332</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I4">
-        <v>3.75</v>
+        <v>9.75</v>
       </c>
       <c r="J4">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L4">
         <v>5</v>
       </c>
       <c r="M4">
-        <v>8.75</v>
+        <v>6.75</v>
       </c>
       <c r="N4">
-        <v>58.333333333333336</v>
+        <v>45</v>
       </c>
       <c r="O4">
-        <v>21.75</v>
+        <v>21.25</v>
       </c>
       <c r="P4">
-        <v>31.071428571428573</v>
+        <v>30.357142857142854</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R4" s="10"/>
       <c r="S4" s="11"/>
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
       <c r="V4">
-        <v>21.75</v>
+        <v>21.25</v>
       </c>
       <c r="W4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Y4">
         <v>70</v>
@@ -1359,16 +1359,16 @@
         <v>29</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>15.75</v>
+        <v>6.75</v>
       </c>
       <c r="F5">
-        <v>52.5</v>
+        <v>22.5</v>
       </c>
       <c r="G5">
         <v>16</v>
@@ -1383,35 +1383,35 @@
         <v>61</v>
       </c>
       <c r="K5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L5">
         <v>2</v>
       </c>
       <c r="M5">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="N5">
-        <v>43.333333333333336</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="O5">
-        <v>37.5</v>
+        <v>27.5</v>
       </c>
       <c r="P5">
-        <v>53.571428571428569</v>
+        <v>39.285714285714285</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R5" s="10"/>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
       <c r="V5">
-        <v>37.5</v>
+        <v>27.5</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="28.2" customHeight="1" thickBot="1">
@@ -1421,42 +1421,60 @@
       <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
       <c r="E6">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="F6">
+        <v>19.166666666666668</v>
+      </c>
+      <c r="G6">
+        <v>11</v>
+      </c>
+      <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>32.142857142857146</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R6" s="10"/>
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
       <c r="U6" s="11"/>
       <c r="V6">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="W6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Y6" t="s">
         <v>31</v>
@@ -1472,60 +1490,42 @@
       <c r="B7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>10</v>
-      </c>
-      <c r="E7">
-        <v>5.5</v>
-      </c>
-      <c r="F7">
-        <v>18.333333333333332</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>3.5</v>
-      </c>
-      <c r="J7">
-        <v>14.000000000000002</v>
-      </c>
-      <c r="K7">
-        <v>8</v>
-      </c>
-      <c r="L7">
-        <v>5</v>
-      </c>
-      <c r="M7">
-        <v>6.75</v>
-      </c>
-      <c r="N7">
-        <v>45</v>
-      </c>
-      <c r="O7">
-        <v>15.75</v>
-      </c>
-      <c r="P7">
-        <v>22.5</v>
-      </c>
-      <c r="Q7">
-        <v>7</v>
       </c>
       <c r="R7" s="10"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
       <c r="V7">
-        <v>15.75</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" thickBot="1">
@@ -1581,46 +1581,46 @@
         <v>34</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>5.75</v>
       </c>
       <c r="F9">
-        <v>33.333333333333329</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>5.5</v>
+      </c>
+      <c r="J9">
+        <v>22</v>
+      </c>
+      <c r="K9">
         <v>7</v>
       </c>
-      <c r="I9">
-        <v>2.25</v>
-      </c>
-      <c r="J9">
-        <v>9</v>
-      </c>
-      <c r="K9">
-        <v>4</v>
-      </c>
       <c r="L9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M9">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N9">
-        <v>16.666666666666664</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="O9">
-        <v>14.75</v>
+        <v>17.75</v>
       </c>
       <c r="P9">
-        <v>21.071428571428573</v>
+        <v>25.357142857142854</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -1630,7 +1630,7 @@
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
       <c r="V9">
-        <v>14.75</v>
+        <v>17.75</v>
       </c>
       <c r="W9">
         <v>8</v>
@@ -1689,59 +1689,59 @@
         <v>36</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E11">
-        <v>10.25</v>
+        <v>8.75</v>
       </c>
       <c r="F11">
-        <v>34.166666666666664</v>
+        <v>29.166666666666668</v>
       </c>
       <c r="G11">
         <v>12</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I11">
-        <v>11.5</v>
+        <v>10.25</v>
       </c>
       <c r="J11">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K11">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>12</v>
+      </c>
+      <c r="N11">
+        <v>80</v>
+      </c>
+      <c r="O11">
+        <v>31</v>
+      </c>
+      <c r="P11">
+        <v>44.285714285714285</v>
+      </c>
+      <c r="Q11">
         <v>1</v>
-      </c>
-      <c r="M11">
-        <v>7.75</v>
-      </c>
-      <c r="N11">
-        <v>51.666666666666671</v>
-      </c>
-      <c r="O11">
-        <v>29.5</v>
-      </c>
-      <c r="P11">
-        <v>42.142857142857146</v>
-      </c>
-      <c r="Q11">
-        <v>2</v>
       </c>
       <c r="R11" s="10"/>
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
       <c r="V11">
-        <v>29.5</v>
+        <v>31</v>
       </c>
       <c r="W11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" thickBot="1">
@@ -1929,59 +1929,59 @@
         <v>41</v>
       </c>
       <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>7.25</v>
+      </c>
+      <c r="F16">
+        <v>24.166666666666668</v>
+      </c>
+      <c r="G16">
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <v>40</v>
+      </c>
+      <c r="K16">
         <v>7</v>
       </c>
-      <c r="D16">
-        <v>8</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-      <c r="F16">
-        <v>16.666666666666664</v>
-      </c>
-      <c r="G16">
-        <v>8</v>
-      </c>
-      <c r="H16">
-        <v>6</v>
-      </c>
-      <c r="I16">
-        <v>6.5</v>
-      </c>
-      <c r="J16">
-        <v>26</v>
-      </c>
-      <c r="K16">
-        <v>6</v>
-      </c>
       <c r="L16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>6</v>
+        <v>6.75</v>
       </c>
       <c r="N16">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="O16">
-        <v>17.5</v>
+        <v>24</v>
       </c>
       <c r="P16">
-        <v>25</v>
+        <v>34.285714285714285</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R16" s="10"/>
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
       <c r="V16">
-        <v>17.5</v>
+        <v>24</v>
       </c>
       <c r="W16">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="15" customHeight="1" thickBot="1">
@@ -1991,60 +1991,42 @@
       <c r="B17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C17">
-        <v>9</v>
-      </c>
-      <c r="D17">
-        <v>11</v>
-      </c>
       <c r="E17">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>20.833333333333336</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>8</v>
-      </c>
-      <c r="K17">
-        <v>12</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>11.75</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>78.333333333333329</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>28.571428571428569</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R17" s="10"/>
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
       <c r="V17">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="15" customHeight="1" thickBot="1">
@@ -2058,43 +2040,43 @@
         <v>6</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E18">
+        <v>2.5</v>
+      </c>
+      <c r="F18">
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="G18">
+        <v>8</v>
+      </c>
+      <c r="H18">
         <v>3</v>
       </c>
-      <c r="F18">
-        <v>10</v>
-      </c>
-      <c r="G18">
-        <v>5</v>
-      </c>
-      <c r="H18">
-        <v>5</v>
-      </c>
       <c r="I18">
-        <v>3.75</v>
+        <v>7.25</v>
       </c>
       <c r="J18">
-        <v>15</v>
+        <v>28.999999999999996</v>
       </c>
       <c r="K18">
         <v>7</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M18">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="N18">
-        <v>40</v>
+        <v>41.666666666666671</v>
       </c>
       <c r="O18">
-        <v>12.75</v>
+        <v>16</v>
       </c>
       <c r="P18">
-        <v>18.214285714285712</v>
+        <v>22.857142857142858</v>
       </c>
       <c r="Q18">
         <v>9</v>
@@ -2104,7 +2086,7 @@
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
       <c r="V18">
-        <v>12.75</v>
+        <v>16</v>
       </c>
       <c r="W18">
         <v>9</v>
@@ -2117,42 +2099,60 @@
       <c r="B19" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>14</v>
+      </c>
       <c r="E19">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="K19">
+        <v>11</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>71.666666666666671</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>34.285714285714285</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R19" s="10"/>
       <c r="S19" s="11"/>
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
       <c r="V19">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="W19">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="42.6" customHeight="1" thickBot="1">
@@ -2166,19 +2166,19 @@
         <v>7</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="F20">
-        <v>21.666666666666668</v>
+        <v>15</v>
       </c>
       <c r="G20">
         <v>10</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>10</v>
@@ -2187,16 +2187,16 @@
         <v>40</v>
       </c>
       <c r="K20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N20">
-        <v>40</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="O20">
         <v>22.5</v>
@@ -2205,7 +2205,7 @@
         <v>32.142857142857146</v>
       </c>
       <c r="Q20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
@@ -2215,7 +2215,7 @@
         <v>22.5</v>
       </c>
       <c r="W20">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="28.8" customHeight="1" thickBot="1">
@@ -2665,7 +2665,7 @@
         <v>60</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>61</v>
@@ -2677,25 +2677,25 @@
         <v>62</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
         <v>63</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J2" t="s">
         <v>64</v>
       </c>
       <c r="K2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L2" t="s">
         <v>65</v>
       </c>
       <c r="M2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O2" t="s">
         <v>66</v>
@@ -2707,13 +2707,13 @@
         <v>67</v>
       </c>
       <c r="R2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S2" t="s">
         <v>68</v>
       </c>
       <c r="T2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -2721,55 +2721,55 @@
         <v>69</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>70</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>71</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H3" t="s">
         <v>72</v>
       </c>
       <c r="I3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J3" t="s">
         <v>73</v>
       </c>
       <c r="K3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L3" t="s">
         <v>74</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O3" t="s">
         <v>75</v>
       </c>
       <c r="P3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q3" t="s">
         <v>76</v>
       </c>
       <c r="R3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S3" t="s">
         <v>77</v>
       </c>
       <c r="T3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -2777,13 +2777,13 @@
         <v>78</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
         <v>80</v>
@@ -2795,7 +2795,7 @@
         <v>81</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J4" t="s">
         <v>82</v>
@@ -2807,25 +2807,25 @@
         <v>83</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O4" t="s">
         <v>84</v>
       </c>
       <c r="P4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q4" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="R4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S4" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="T4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -2833,7 +2833,7 @@
         <v>86</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>87</v>
@@ -2851,13 +2851,13 @@
         <v>89</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5" t="s">
         <v>90</v>
       </c>
       <c r="K5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L5" t="s">
         <v>91</v>
@@ -2881,7 +2881,7 @@
         <v>94</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -2889,7 +2889,7 @@
         <v>95</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>96</v>
@@ -2901,187 +2901,187 @@
         <v>97</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H6" t="s">
         <v>98</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J6" t="s">
         <v>99</v>
       </c>
       <c r="K6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M6">
         <v>2</v>
       </c>
       <c r="O6" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="P6">
         <v>6</v>
       </c>
       <c r="Q6" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="R6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="T6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F7">
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="M7">
         <v>2</v>
       </c>
       <c r="O7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="P7">
         <v>6</v>
       </c>
       <c r="Q7" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="R7">
         <v>4</v>
       </c>
       <c r="S7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="T7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="K8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L8" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="M8">
         <v>2</v>
       </c>
       <c r="O8" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="P8">
         <v>5</v>
       </c>
       <c r="Q8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S8" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="T8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
         <v>114</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>115</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H9" t="s">
         <v>116</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" t="s">
         <v>117</v>
       </c>
       <c r="K9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L9" t="s">
         <v>118</v>
@@ -3090,19 +3090,19 @@
         <v>2</v>
       </c>
       <c r="O9" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="P9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="R9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S9" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="T9">
         <v>1</v>
@@ -3110,55 +3110,55 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>119</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
       </c>
       <c r="H10" t="s">
         <v>120</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="K10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L10" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="P10">
         <v>4</v>
       </c>
       <c r="Q10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="R10">
         <v>2</v>
       </c>
       <c r="S10" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="T10">
         <v>1</v>
@@ -3166,55 +3166,55 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="I11">
         <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L11" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O11" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="P11">
         <v>4</v>
       </c>
       <c r="Q11" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S11" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="T11">
         <v>1</v>
@@ -3227,7 +3227,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BS11"/>
+  <dimension ref="A1:BS10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3249,178 +3249,178 @@
   <sheetData>
     <row r="1" spans="1:71">
       <c r="A1" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K1" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="L1" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB1" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="O1" s="14" t="s">
+      <c r="AC1" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD1" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE1" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="T1" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="U1" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="V1" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="X1" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y1" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z1" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA1" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB1" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC1" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD1" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE1" s="14" t="s">
-        <v>128</v>
-      </c>
       <c r="AF1" s="14" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="AG1" s="14" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="AH1" s="14" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="AI1" s="14" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="AJ1" s="14" t="s">
         <v>118</v>
       </c>
       <c r="AK1" s="14" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="AL1" s="14" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="AM1" s="14" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AN1" s="14" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="AO1" s="14" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="AP1" s="14" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AQ1" s="14" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="AR1" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS1" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="AS1" s="14" t="s">
-        <v>130</v>
-      </c>
       <c r="AT1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU1" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="AU1" s="14" t="s">
-        <v>111</v>
-      </c>
       <c r="AV1" s="14" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AW1" s="14" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="AX1" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AY1" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ1" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB1" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="BC1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="AY1" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AZ1" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA1" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="BB1" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="BC1" s="14" t="s">
-        <v>116</v>
-      </c>
       <c r="BD1" s="14" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="BE1" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BF1" s="14" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="BG1" s="14" t="s">
         <v>75</v>
@@ -3429,37 +3429,37 @@
         <v>84</v>
       </c>
       <c r="BI1" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ1" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK1" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="BL1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM1" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="BN1" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="BJ1" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="BK1" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="BL1" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="BM1" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="BN1" s="14" t="s">
-        <v>100</v>
-      </c>
       <c r="BO1" s="14" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="BP1" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="BQ1" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="BR1" s="14" t="s">
-        <v>85</v>
-      </c>
       <c r="BS1" s="14" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -3473,184 +3473,184 @@
         <v>133</v>
       </c>
       <c r="D2" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="R2" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="F2" s="16" t="s">
+      <c r="S2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="W2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y2" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB2" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC2" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD2" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE2" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF2" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG2" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI2" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AL2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN2" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP2" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AR2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS2" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AV2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AX2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AY2" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="AZ2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA2" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="BB2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC2" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD2" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="BE2" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF2" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="H2" s="16" t="s">
+      <c r="BG2" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="BH2" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="U2" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="W2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="X2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF2" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG2" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="AH2" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI2" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ2" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AL2" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN2" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="AO2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AP2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AQ2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AR2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AS2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AT2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AV2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AW2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AX2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AY2" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="AZ2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BA2" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="BB2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BC2" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="BD2" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="BE2" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="BF2" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="BG2" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="BH2" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="BI2" s="16" t="s">
-        <v>133</v>
+      <c r="BI2" s="17" t="s">
+        <v>138</v>
       </c>
       <c r="BJ2" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="BK2" s="16" t="s">
-        <v>138</v>
+      <c r="BK2" s="15" t="s">
+        <v>136</v>
       </c>
       <c r="BL2" s="15" t="s">
         <v>136</v>
@@ -3658,11 +3658,11 @@
       <c r="BM2" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="BN2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BO2" s="15" t="s">
-        <v>136</v>
+      <c r="BN2" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="BO2" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="BP2" s="15" t="s">
         <v>136</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="3" spans="1:71">
       <c r="A3" s="15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>132</v>
@@ -3687,639 +3687,639 @@
       <c r="C3" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="R3" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="S3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="W3" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="X3" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y3" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z3" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB3" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC3" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD3" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE3" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG3" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI3" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK3" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM3" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN3" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP3" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AR3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS3" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="H3" s="16" t="s">
+      <c r="AT3" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AV3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW3" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AX3" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY3" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="AZ3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BB3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BD3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE3" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF3" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="BG3" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="BH3" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="P3" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q3" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="R3" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="S3" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="U3" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="V3" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="X3" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y3" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z3" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA3" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB3" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC3" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD3" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE3" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="AF3" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG3" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH3" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI3" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ3" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AK3" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AL3" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AM3" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN3" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AO3" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="AP3" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AQ3" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AR3" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AS3" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AT3" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU3" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AV3" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="AW3" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AX3" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AY3" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AZ3" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="BA3" s="17" t="s">
+      <c r="BI3" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="BJ3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BK3" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="BL3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BM3" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="BN3" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="BB3" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BC3" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="BD3" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BE3" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="BF3" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="BG3" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="BH3" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="BI3" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="BJ3" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="BK3" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="BL3" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BM3" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BN3" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="BO3" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="BP3" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="BQ3" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="BR3" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="BS3" s="17" t="s">
-        <v>142</v>
+      <c r="BO3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BR3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BS3" s="15" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:71">
       <c r="A4" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="R4" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="T4" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="N4" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="P4" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q4" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="R4" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="S4" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="T4" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="U4" s="16" t="s">
-        <v>132</v>
+      <c r="U4" s="17" t="s">
+        <v>141</v>
       </c>
       <c r="V4" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="W4" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="W4" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="X4" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y4" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="X4" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y4" s="16" t="s">
-        <v>135</v>
-      </c>
       <c r="Z4" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA4" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA4" s="16" t="s">
         <v>139</v>
       </c>
       <c r="AB4" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC4" s="15" t="s">
-        <v>136</v>
+        <v>140</v>
+      </c>
+      <c r="AC4" s="17" t="s">
+        <v>138</v>
       </c>
       <c r="AD4" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="AE4" s="16" t="s">
+      <c r="AE4" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF4" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG4" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH4" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="AF4" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG4" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH4" s="15" t="s">
-        <v>136</v>
-      </c>
       <c r="AI4" s="17" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AJ4" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK4" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AL4" s="16" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AK4" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL4" s="17" t="s">
+        <v>135</v>
       </c>
       <c r="AM4" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="AN4" s="16" t="s">
+      <c r="AN4" s="17" t="s">
         <v>138</v>
       </c>
       <c r="AO4" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="AP4" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AQ4" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AR4" s="15" t="s">
-        <v>136</v>
+      <c r="AP4" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ4" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR4" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="AS4" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="AT4" s="15" t="s">
-        <v>136</v>
+      <c r="AT4" s="17" t="s">
+        <v>142</v>
       </c>
       <c r="AU4" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="AV4" s="16" t="s">
+      <c r="AV4" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW4" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AX4" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY4" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AZ4" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA4" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB4" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="AW4" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="AX4" s="17" t="s">
+      <c r="BC4" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BD4" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="BE4" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="AY4" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AZ4" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="BA4" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BB4" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BC4" s="17" t="s">
+      <c r="BF4" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="BG4" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="BD4" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="BE4" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="BF4" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="BG4" s="16" t="s">
-        <v>132</v>
-      </c>
       <c r="BH4" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="BI4" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="BJ4" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="BI4" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="BJ4" s="17" t="s">
-        <v>137</v>
-      </c>
       <c r="BK4" s="15" t="s">
         <v>136</v>
       </c>
       <c r="BL4" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="BM4" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BN4" s="15" t="s">
-        <v>136</v>
+      <c r="BM4" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="BN4" s="17" t="s">
+        <v>141</v>
       </c>
       <c r="BO4" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="BP4" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="BQ4" s="16" t="s">
-        <v>132</v>
+        <v>140</v>
+      </c>
+      <c r="BP4" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="BQ4" s="17" t="s">
+        <v>141</v>
       </c>
       <c r="BR4" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="BS4" s="16" t="s">
-        <v>138</v>
+      <c r="BS4" s="17" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:71">
       <c r="A5" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="O5" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="P5" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="R5" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="S5" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="T5" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="U5" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="V5" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="W5" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="X5" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y5" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z5" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="AA5" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB5" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC5" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD5" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE5" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF5" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG5" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH5" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI5" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ5" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK5" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL5" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM5" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN5" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="AO5" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP5" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ5" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AR5" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS5" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT5" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU5" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AV5" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW5" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AX5" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY5" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="AZ5" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA5" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="BB5" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC5" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BD5" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE5" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF5" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="O5" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q5" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="R5" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="S5" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="T5" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="U5" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="V5" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="W5" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="X5" s="16" t="s">
+      <c r="BG5" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="BH5" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="Y5" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z5" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA5" s="17" t="s">
+      <c r="BI5" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="BJ5" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="AB5" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC5" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD5" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE5" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="AF5" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG5" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="AH5" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI5" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ5" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK5" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AL5" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AM5" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN5" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="AO5" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AP5" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AQ5" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AR5" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AS5" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT5" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU5" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="AV5" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="AW5" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="AX5" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AY5" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="AZ5" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BA5" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="BB5" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BC5" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BD5" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="BE5" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="BF5" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="BG5" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="BH5" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="BI5" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BJ5" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BK5" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="BL5" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="BM5" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN5" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BO5" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BP5" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BQ5" s="15" t="s">
-        <v>136</v>
+      <c r="BK5" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BL5" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BM5" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="BN5" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="BO5" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="BP5" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="BQ5" s="17" t="s">
+        <v>141</v>
       </c>
       <c r="BR5" s="15" t="s">
         <v>136</v>
       </c>
       <c r="BS5" s="17" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -4327,154 +4327,154 @@
         <v>146</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>133</v>
       </c>
       <c r="D6" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="R6" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="S6" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F6" s="16" t="s">
+      <c r="T6" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="U6" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="V6" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="W6" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="X6" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y6" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z6" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="L6" s="17" t="s">
+      <c r="AA6" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="M6" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="P6" s="17" t="s">
+      <c r="AB6" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC6" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD6" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE6" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF6" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG6" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH6" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI6" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ6" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="Q6" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="R6" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="S6" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="T6" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="U6" s="17" t="s">
+      <c r="AK6" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="V6" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="W6" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="X6" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y6" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z6" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA6" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB6" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC6" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD6" s="17" t="s">
+      <c r="AL6" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM6" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN6" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AO6" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP6" s="16" t="s">
         <v>139</v>
-      </c>
-      <c r="AE6" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="AF6" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG6" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH6" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI6" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ6" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AK6" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL6" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM6" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN6" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="AO6" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="AP6" s="15" t="s">
-        <v>136</v>
       </c>
       <c r="AQ6" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="AR6" s="17" t="s">
+      <c r="AR6" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS6" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="AS6" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="AT6" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU6" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="AV6" s="16" t="s">
+      <c r="AT6" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU6" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AV6" s="17" t="s">
         <v>135</v>
       </c>
       <c r="AW6" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="AX6" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AY6" s="15" t="s">
-        <v>136</v>
+      <c r="AX6" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AY6" s="17" t="s">
+        <v>142</v>
       </c>
       <c r="AZ6" s="15" t="s">
         <v>136</v>
@@ -4488,47 +4488,47 @@
       <c r="BC6" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="BD6" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="BE6" s="16" t="s">
+      <c r="BD6" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="BF6" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="BG6" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="BH6" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BI6" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="BJ6" s="16" t="s">
+      <c r="BE6" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF6" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="BG6" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="BH6" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="BK6" s="16" t="s">
-        <v>138</v>
+      <c r="BI6" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="BJ6" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BK6" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="BL6" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="BM6" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN6" s="17" t="s">
-        <v>142</v>
+        <v>139</v>
+      </c>
+      <c r="BM6" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN6" s="15" t="s">
+        <v>136</v>
       </c>
       <c r="BO6" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="BP6" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BQ6" s="15" t="s">
-        <v>136</v>
+      <c r="BP6" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="BQ6" s="16" t="s">
+        <v>134</v>
       </c>
       <c r="BR6" s="15" t="s">
         <v>136</v>
@@ -4541,851 +4541,851 @@
       <c r="A7" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="R7" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="S7" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="T7" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="U7" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="V7" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="W7" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="X7" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y7" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="17" t="s">
+      <c r="Z7" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA7" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB7" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC7" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD7" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE7" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="H7" s="17" t="s">
+      <c r="AF7" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG7" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH7" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI7" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ7" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK7" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL7" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM7" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN7" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO7" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP7" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ7" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR7" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS7" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="I7" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="L7" s="17" t="s">
+      <c r="AT7" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU7" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AV7" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW7" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AX7" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY7" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AZ7" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="BA7" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB7" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC7" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD7" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="BE7" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="BF7" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="BG7" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="BH7" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="BI7" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="BJ7" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BK7" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="BL7" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="BM7" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="BN7" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="BO7" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="BP7" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="BQ7" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="BR7" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BS7" s="16" t="s">
         <v>139</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="O7" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="P7" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q7" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="R7" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="S7" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="T7" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="U7" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="V7" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="W7" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="X7" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y7" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z7" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA7" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB7" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC7" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD7" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE7" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="AF7" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG7" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH7" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI7" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ7" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK7" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="AL7" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="AM7" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="AN7" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="AO7" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="AP7" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="AQ7" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="AR7" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AS7" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT7" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU7" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AV7" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="AW7" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="AX7" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AY7" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AZ7" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BA7" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BB7" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BC7" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="BD7" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="BE7" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="BF7" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="BG7" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="BH7" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="BI7" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="BJ7" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="BK7" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="BL7" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="BM7" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN7" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="BO7" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="BP7" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="BQ7" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="BR7" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="BS7" s="17" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:71">
       <c r="A8" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="D8" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="P8" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="R8" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="S8" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="T8" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="U8" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="V8" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="W8" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="X8" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y8" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z8" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA8" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB8" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC8" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD8" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE8" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF8" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="AG8" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH8" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI8" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ8" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK8" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AL8" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM8" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN8" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO8" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP8" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ8" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AR8" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS8" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT8" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="H8" s="16" t="s">
+      <c r="AU8" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AV8" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="I8" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="J8" s="17" t="s">
+      <c r="AW8" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AX8" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AY8" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="AZ8" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA8" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB8" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="BC8" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD8" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE8" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="K8" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="L8" s="17" t="s">
+      <c r="BF8" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BG8" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="BH8" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="BI8" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="BJ8" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BK8" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="BL8" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BM8" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN8" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="BO8" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="BP8" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ8" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="M8" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="N8" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="O8" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="P8" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q8" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="R8" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="S8" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="T8" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="U8" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="V8" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="W8" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="X8" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y8" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z8" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA8" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB8" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC8" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD8" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE8" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF8" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG8" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="AH8" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI8" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ8" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AK8" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AL8" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AM8" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN8" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AO8" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AP8" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AQ8" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AR8" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AS8" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AT8" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU8" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AV8" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AW8" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AX8" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AY8" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AZ8" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BA8" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BB8" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BC8" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BD8" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BE8" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="BF8" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="BG8" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="BH8" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="BI8" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="BJ8" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="BK8" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="BL8" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="BM8" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN8" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="BO8" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="BP8" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BQ8" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BR8" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="BS8" s="16" t="s">
-        <v>138</v>
+      <c r="BR8" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BS8" s="15" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:71">
       <c r="A9" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="16" t="s">
+      <c r="C9" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="N9" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="O9" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="P9" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q9" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="R9" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="S9" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="T9" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="U9" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="V9" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="W9" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="X9" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="Y9" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z9" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA9" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB9" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC9" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD9" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE9" s="16" t="s">
         <v>132</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="N9" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="O9" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="P9" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q9" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="R9" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="S9" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="T9" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="U9" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="V9" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="W9" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="X9" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y9" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z9" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA9" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB9" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC9" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD9" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE9" s="15" t="s">
-        <v>136</v>
       </c>
       <c r="AF9" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="AG9" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH9" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI9" s="15" t="s">
-        <v>136</v>
+      <c r="AG9" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH9" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI9" s="17" t="s">
+        <v>138</v>
       </c>
       <c r="AJ9" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK9" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
+      </c>
+      <c r="AK9" s="17" t="s">
+        <v>138</v>
       </c>
       <c r="AL9" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM9" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN9" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO9" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP9" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ9" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR9" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS9" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT9" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU9" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AV9" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW9" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AX9" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY9" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="AZ9" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA9" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BB9" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="BC9" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BD9" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE9" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="AM9" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN9" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="AO9" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AP9" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AQ9" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="AR9" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AS9" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="AT9" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU9" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="AV9" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="AW9" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AX9" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AY9" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AZ9" s="17" t="s">
+      <c r="BF9" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="BG9" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="BH9" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BI9" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BJ9" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BK9" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="BL9" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BM9" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN9" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BO9" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="BP9" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="BQ9" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="BA9" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BB9" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BC9" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BD9" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BE9" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="BF9" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="BG9" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="BH9" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="BI9" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="BJ9" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="BK9" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="BL9" s="17" t="s">
+      <c r="BR9" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BS9" s="17" t="s">
         <v>141</v>
-      </c>
-      <c r="BM9" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BN9" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="BO9" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BP9" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BQ9" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BR9" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="BS9" s="16" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:71">
       <c r="A10" s="15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="L10" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="M10" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="N10" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="O10" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="R10" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="S10" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="T10" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="U10" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="V10" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="W10" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="X10" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y10" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z10" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA10" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB10" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC10" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD10" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE10" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF10" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG10" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH10" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI10" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ10" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK10" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL10" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="AM10" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN10" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AO10" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP10" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ10" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AR10" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS10" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT10" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU10" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AV10" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW10" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AX10" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AY10" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ10" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA10" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB10" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="BC10" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BD10" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE10" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF10" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BG10" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="BH10" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="BI10" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="BJ10" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="BK10" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BL10" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BM10" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN10" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="L10" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="N10" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="P10" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q10" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="R10" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="S10" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="T10" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="U10" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="V10" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="W10" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="X10" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y10" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z10" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA10" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="AB10" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC10" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD10" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE10" s="16" t="s">
+      <c r="BO10" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="BP10" s="16" t="s">
         <v>133</v>
-      </c>
-      <c r="AF10" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG10" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="AH10" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI10" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ10" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK10" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL10" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM10" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN10" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="AO10" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="AP10" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="AQ10" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="AR10" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="AS10" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="AT10" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU10" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="AV10" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="AW10" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="AX10" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AY10" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AZ10" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="BA10" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BB10" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BC10" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BD10" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BE10" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="BF10" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="BG10" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="BH10" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="BI10" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="BJ10" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="BK10" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="BL10" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BM10" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BN10" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BO10" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BP10" s="15" t="s">
-        <v>136</v>
       </c>
       <c r="BQ10" s="16" t="s">
         <v>132</v>
@@ -5393,223 +5393,8 @@
       <c r="BR10" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="BS10" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:71">
-      <c r="A11" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="J11" s="17" t="s">
+      <c r="BS10" s="17" t="s">
         <v>141</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="L11" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="M11" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="O11" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="P11" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q11" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="R11" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="S11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="T11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="U11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="V11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="W11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="X11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF11" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI11" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ11" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="AK11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AL11" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AO11" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AQ11" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="AR11" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="AS11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AT11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU11" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="AV11" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="AW11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AX11" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="AY11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AZ11" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="BA11" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="BB11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BC11" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="BD11" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="BE11" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="BF11" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="BG11" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="BH11" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="BI11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BJ11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BK11" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="BL11" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="BM11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BN11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BO11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BP11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BQ11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BR11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BS11" s="15" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
